--- a/DERIVED/combineLevels_train_processed.xlsx
+++ b/DERIVED/combineLevels_train_processed.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\system5\Documents\StudyWork\Kaggle\House_Pricing\DERIVED\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24426"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="summary_train_processed" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="464">
   <si>
     <t xml:space="preserve">  MSSubClass</t>
   </si>
@@ -1387,13 +1387,37 @@
   </si>
   <si>
     <t>combine poor and very poor</t>
+  </si>
+  <si>
+    <t>Piyush Comments</t>
+  </si>
+  <si>
+    <t>Ekta Commnets</t>
+  </si>
+  <si>
+    <t>Combine IR2 and IR3 only</t>
+  </si>
+  <si>
+    <t>Combine Hip and Mansard</t>
+  </si>
+  <si>
+    <t>Combine ClyTile, Membran, Metal, Roll</t>
+  </si>
+  <si>
+    <t>combine Floor and OthW</t>
+  </si>
+  <si>
+    <t>combine Fa and Po</t>
+  </si>
+  <si>
+    <t>combine Mix and FuseP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1524,6 +1548,29 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1711,8 +1758,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1832,7 +1879,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1875,15 +1922,18 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1912,11 +1962,13 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1983,7 +2035,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2018,7 +2070,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2195,7 +2247,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2203,441 +2255,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY9"/>
+  <dimension ref="A1:CA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:79" s="2" customFormat="1">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:79">
+      <c r="B2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>83</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>84</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>85</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>86</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>87</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>88</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>89</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>90</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>92</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>93</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>94</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>95</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>96</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>97</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>99</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>100</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>101</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>102</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>103</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>96</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>104</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>105</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>96</v>
       </c>
       <c r="AG2" t="s">
         <v>96</v>
       </c>
       <c r="AH2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI2" t="s">
         <v>106</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>107</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>108</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>109</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>110</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>111</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>112</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>110</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>113</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>114</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>115</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>113</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>115</v>
       </c>
       <c r="AU2" t="s">
         <v>115</v>
       </c>
       <c r="AV2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW2" t="s">
         <v>116</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>117</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>118</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>115</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>119</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>120</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>121</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>115</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>96</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>122</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>123</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>124</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>125</v>
       </c>
       <c r="BI2" t="s">
         <v>125</v>
@@ -2652,225 +2701,225 @@
         <v>125</v>
       </c>
       <c r="BM2" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN2" t="s">
         <v>112</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>126</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>127</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>128</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>89</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>129</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>130</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>131</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>132</v>
       </c>
-      <c r="BV2">
+      <c r="BW2">
         <v>0.97638888888888886</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>133</v>
       </c>
-      <c r="BX2">
+      <c r="BY2">
         <v>0.71875</v>
       </c>
-      <c r="BY2">
+      <c r="BZ2">
         <v>0.34236111111111112</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:79">
+      <c r="B3" t="s">
         <v>197</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>136</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>137</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>138</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>140</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>141</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>142</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>143</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>144</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>145</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>146</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>147</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>148</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>149</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>150</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>151</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>152</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>153</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>154</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>155</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>156</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>157</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>158</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>159</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>160</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>161</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>154</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>162</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>163</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>164</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>165</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>166</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>167</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>168</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>169</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>170</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>171</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>172</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>173</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>174</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
         <v>175</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AS3" t="s">
         <v>176</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>174</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" t="s">
         <v>177</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AV3" t="s">
         <v>176</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>178</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>147</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>179</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>180</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>181</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>182</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>183</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>176</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>184</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>185</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>186</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>187</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>188</v>
       </c>
       <c r="BI3" t="s">
         <v>188</v>
@@ -2885,231 +2934,231 @@
         <v>188</v>
       </c>
       <c r="BM3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BN3" t="s">
         <v>172</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="BO3" t="s">
         <v>189</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" t="s">
         <v>190</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="BQ3" t="s">
         <v>191</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="BR3" t="s">
         <v>147</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BS3" t="s">
         <v>192</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="BT3" t="s">
         <v>193</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="BU3" t="s">
         <v>194</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BV3" t="s">
         <v>195</v>
       </c>
-      <c r="BV3" s="1">
+      <c r="BW3" s="1">
         <v>7.9166666666666663E-2</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BX3" t="s">
         <v>196</v>
       </c>
-      <c r="BX3">
+      <c r="BY3">
         <v>0.56041666666666667</v>
       </c>
-      <c r="BY3">
+      <c r="BZ3">
         <v>0.25347222222222221</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:79">
+      <c r="B4" t="s">
         <v>262</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>198</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>199</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>200</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>201</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>202</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>203</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>204</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>205</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>206</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>207</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>208</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>209</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>210</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>211</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>212</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>213</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>214</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>215</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>216</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>217</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>218</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>219</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>220</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>221</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>222</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>223</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>224</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>225</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>226</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>227</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>228</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>229</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>230</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>231</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>232</v>
-      </c>
       <c r="AK4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL4" t="s">
         <v>233</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>234</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AN4" t="s">
         <v>235</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>236</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>237</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>238</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>239</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>240</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>238</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>241</v>
       </c>
-      <c r="AU4" t="s">
+      <c r="AV4" t="s">
         <v>242</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>243</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>210</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>244</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>242</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>245</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>246</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>247</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>240</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>248</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>249</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>250</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>251</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>252</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>253</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>252</v>
       </c>
       <c r="BK4" t="s">
         <v>252</v>
@@ -3118,294 +3167,294 @@
         <v>252</v>
       </c>
       <c r="BM4" t="s">
+        <v>252</v>
+      </c>
+      <c r="BN4" t="s">
         <v>236</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BO4" t="s">
         <v>254</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" t="s">
         <v>255</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BQ4" t="s">
         <v>256</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BR4" t="s">
         <v>210</v>
       </c>
-      <c r="BR4" t="s">
+      <c r="BS4" t="s">
         <v>257</v>
       </c>
-      <c r="BS4" t="s">
+      <c r="BT4" t="s">
         <v>258</v>
       </c>
-      <c r="BT4" t="s">
+      <c r="BU4" t="s">
         <v>259</v>
       </c>
-      <c r="BU4" t="s">
+      <c r="BV4" t="s">
         <v>260</v>
       </c>
-      <c r="BV4" t="s">
-        <v>232</v>
-      </c>
       <c r="BW4" t="s">
+        <v>232</v>
+      </c>
+      <c r="BX4" t="s">
         <v>261</v>
       </c>
-      <c r="BX4">
+      <c r="BY4">
         <v>0.42083333333333334</v>
       </c>
-      <c r="BY4">
+      <c r="BZ4">
         <v>0.66805555555555551</v>
       </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:79">
+      <c r="B5" t="s">
         <v>331</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>263</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>264</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>265</v>
       </c>
-      <c r="E5" t="s">
-        <v>232</v>
-      </c>
       <c r="F5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" t="s">
         <v>266</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>267</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>268</v>
       </c>
-      <c r="I5" t="s">
-        <v>232</v>
-      </c>
       <c r="J5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" t="s">
         <v>269</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>270</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>271</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>272</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>273</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>274</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>275</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>276</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>277</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>278</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>279</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>280</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>281</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>282</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>283</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>284</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>285</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>286</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>287</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>288</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>289</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>290</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>291</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>292</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>293</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>294</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>232</v>
-      </c>
       <c r="AK5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL5" t="s">
         <v>295</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>296</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
         <v>297</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>298</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>299</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>300</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>301</v>
       </c>
-      <c r="AR5" t="s">
+      <c r="AS5" t="s">
         <v>302</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>303</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" t="s">
         <v>304</v>
       </c>
-      <c r="AU5" t="s">
+      <c r="AV5" t="s">
         <v>305</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>306</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>307</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>308</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>309</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>310</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>311</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>312</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>313</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>314</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>315</v>
       </c>
       <c r="BF5" t="s">
         <v>315</v>
       </c>
       <c r="BG5" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="BH5" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI5" t="s">
         <v>316</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>317</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>318</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BL5" t="s">
         <v>319</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BM5" t="s">
         <v>320</v>
       </c>
-      <c r="BM5" t="s">
+      <c r="BN5" t="s">
         <v>321</v>
       </c>
-      <c r="BN5" t="s">
+      <c r="BO5" t="s">
         <v>322</v>
       </c>
-      <c r="BO5" t="s">
+      <c r="BP5" t="s">
         <v>323</v>
       </c>
-      <c r="BP5" t="s">
+      <c r="BQ5" t="s">
         <v>324</v>
       </c>
-      <c r="BQ5" t="s">
+      <c r="BR5" t="s">
         <v>325</v>
       </c>
-      <c r="BR5" t="s">
+      <c r="BS5" t="s">
         <v>326</v>
       </c>
-      <c r="BS5" t="s">
+      <c r="BT5" t="s">
         <v>327</v>
       </c>
-      <c r="BT5" t="s">
+      <c r="BU5" t="s">
         <v>328</v>
       </c>
-      <c r="BU5" t="s">
+      <c r="BV5" t="s">
         <v>329</v>
       </c>
-      <c r="BV5" t="s">
-        <v>232</v>
-      </c>
       <c r="BW5" t="s">
+        <v>232</v>
+      </c>
+      <c r="BX5" t="s">
         <v>330</v>
       </c>
-      <c r="BX5">
+      <c r="BY5">
         <v>0.45902777777777776</v>
       </c>
-      <c r="BY5" t="s">
+      <c r="BZ5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:79">
+      <c r="B6" t="s">
         <v>386</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>332</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>333</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>334</v>
       </c>
-      <c r="E6" t="s">
-        <v>232</v>
-      </c>
       <c r="F6" t="s">
         <v>232</v>
       </c>
@@ -3413,169 +3462,169 @@
         <v>232</v>
       </c>
       <c r="H6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" t="s">
         <v>335</v>
       </c>
-      <c r="I6" t="s">
-        <v>232</v>
-      </c>
       <c r="J6" t="s">
+        <v>232</v>
+      </c>
+      <c r="K6" t="s">
         <v>336</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>337</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>338</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>339</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>340</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>341</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>342</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>343</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>344</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>345</v>
       </c>
-      <c r="T6" t="s">
-        <v>232</v>
-      </c>
       <c r="U6" t="s">
+        <v>232</v>
+      </c>
+      <c r="V6" t="s">
         <v>346</v>
       </c>
-      <c r="V6" t="s">
-        <v>232</v>
-      </c>
       <c r="W6" t="s">
+        <v>232</v>
+      </c>
+      <c r="X6" t="s">
         <v>347</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>348</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>349</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>350</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>351</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>284</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>352</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>353</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>354</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>355</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>356</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>357</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>358</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>232</v>
-      </c>
       <c r="AK6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL6" t="s">
         <v>359</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>360</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="AN6" t="s">
         <v>361</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="AO6" t="s">
         <v>362</v>
       </c>
-      <c r="AO6" t="s">
+      <c r="AP6" t="s">
         <v>363</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>364</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>365</v>
       </c>
-      <c r="AR6" t="s">
+      <c r="AS6" t="s">
         <v>366</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>364</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>367</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AV6" t="s">
         <v>368</v>
       </c>
-      <c r="AV6" t="s">
-        <v>232</v>
-      </c>
       <c r="AW6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AX6" t="s">
         <v>340</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>369</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>368</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>370</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB6" t="s">
         <v>371</v>
       </c>
-      <c r="BB6" t="s">
-        <v>232</v>
-      </c>
       <c r="BC6" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD6" t="s">
         <v>366</v>
       </c>
-      <c r="BD6" t="s">
+      <c r="BE6" t="s">
         <v>372</v>
       </c>
-      <c r="BE6" t="s">
+      <c r="BF6" t="s">
         <v>373</v>
       </c>
-      <c r="BF6" t="s">
+      <c r="BG6" t="s">
         <v>374</v>
       </c>
-      <c r="BG6" t="s">
-        <v>232</v>
-      </c>
       <c r="BH6" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI6" t="s">
         <v>375</v>
       </c>
-      <c r="BI6" t="s">
+      <c r="BJ6" t="s">
         <v>376</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>377</v>
       </c>
       <c r="BK6" t="s">
         <v>377</v>
@@ -3584,61 +3633,61 @@
         <v>377</v>
       </c>
       <c r="BM6" t="s">
+        <v>377</v>
+      </c>
+      <c r="BN6" t="s">
         <v>362</v>
       </c>
-      <c r="BN6" t="s">
-        <v>232</v>
-      </c>
       <c r="BO6" t="s">
+        <v>232</v>
+      </c>
+      <c r="BP6" t="s">
         <v>378</v>
       </c>
-      <c r="BP6" t="s">
+      <c r="BQ6" t="s">
         <v>379</v>
       </c>
-      <c r="BQ6" t="s">
+      <c r="BR6" t="s">
         <v>380</v>
       </c>
-      <c r="BR6" t="s">
+      <c r="BS6" t="s">
         <v>381</v>
       </c>
-      <c r="BS6" t="s">
+      <c r="BT6" t="s">
         <v>382</v>
       </c>
-      <c r="BT6" t="s">
+      <c r="BU6" t="s">
         <v>383</v>
       </c>
-      <c r="BU6" t="s">
+      <c r="BV6" t="s">
         <v>384</v>
       </c>
-      <c r="BV6" t="s">
-        <v>232</v>
-      </c>
       <c r="BW6" t="s">
+        <v>232</v>
+      </c>
+      <c r="BX6" t="s">
         <v>385</v>
       </c>
-      <c r="BX6">
+      <c r="BY6">
         <v>0.35138888888888892</v>
       </c>
-      <c r="BY6" t="s">
+      <c r="BZ6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:79">
+      <c r="B7" t="s">
         <v>437</v>
       </c>
-      <c r="B7" t="s">
-        <v>232</v>
-      </c>
       <c r="C7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" t="s">
         <v>387</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>388</v>
       </c>
-      <c r="E7" t="s">
-        <v>232</v>
-      </c>
       <c r="F7" t="s">
         <v>232</v>
       </c>
@@ -3652,53 +3701,53 @@
         <v>232</v>
       </c>
       <c r="J7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K7" t="s">
         <v>389</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>390</v>
       </c>
-      <c r="L7" t="s">
-        <v>232</v>
-      </c>
       <c r="M7" t="s">
+        <v>232</v>
+      </c>
+      <c r="N7" t="s">
         <v>391</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>392</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>393</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>394</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>395</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>396</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>397</v>
       </c>
-      <c r="T7" t="s">
-        <v>232</v>
-      </c>
       <c r="U7" t="s">
+        <v>232</v>
+      </c>
+      <c r="V7" t="s">
         <v>398</v>
       </c>
-      <c r="V7" t="s">
-        <v>232</v>
-      </c>
       <c r="W7" t="s">
         <v>232</v>
       </c>
       <c r="X7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y7" t="s">
         <v>399</v>
       </c>
-      <c r="Y7" t="s">
-        <v>232</v>
-      </c>
       <c r="Z7" t="s">
         <v>232</v>
       </c>
@@ -3706,29 +3755,29 @@
         <v>232</v>
       </c>
       <c r="AB7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC7" t="s">
         <v>400</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>401</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>402</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>403</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>404</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>405</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>406</v>
       </c>
-      <c r="AI7" t="s">
-        <v>232</v>
-      </c>
       <c r="AJ7" t="s">
         <v>232</v>
       </c>
@@ -3736,130 +3785,130 @@
         <v>232</v>
       </c>
       <c r="AL7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM7" t="s">
         <v>407</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
         <v>408</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>409</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>410</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>411</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
         <v>412</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AS7" t="s">
         <v>413</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>414</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7" t="s">
         <v>415</v>
       </c>
-      <c r="AU7" t="s">
+      <c r="AV7" t="s">
         <v>413</v>
       </c>
-      <c r="AV7" t="s">
-        <v>232</v>
-      </c>
       <c r="AW7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AX7" t="s">
         <v>416</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>417</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>413</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>418</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BB7" t="s">
         <v>419</v>
       </c>
-      <c r="BB7" t="s">
-        <v>232</v>
-      </c>
       <c r="BC7" t="s">
+        <v>232</v>
+      </c>
+      <c r="BD7" t="s">
         <v>420</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BE7" t="s">
         <v>421</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BF7" t="s">
         <v>422</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BG7" t="s">
         <v>423</v>
       </c>
-      <c r="BG7" t="s">
-        <v>232</v>
-      </c>
       <c r="BH7" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI7" t="s">
         <v>424</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>425</v>
       </c>
-      <c r="BJ7" t="s">
+      <c r="BK7" t="s">
         <v>426</v>
       </c>
-      <c r="BK7" t="s">
+      <c r="BL7" t="s">
         <v>427</v>
       </c>
-      <c r="BL7" t="s">
+      <c r="BM7" t="s">
         <v>428</v>
       </c>
-      <c r="BM7" t="s">
+      <c r="BN7" t="s">
         <v>429</v>
       </c>
-      <c r="BN7" t="s">
-        <v>232</v>
-      </c>
       <c r="BO7" t="s">
         <v>232</v>
       </c>
       <c r="BP7" t="s">
+        <v>232</v>
+      </c>
+      <c r="BQ7" t="s">
         <v>430</v>
       </c>
-      <c r="BQ7" t="s">
+      <c r="BR7" t="s">
         <v>431</v>
       </c>
-      <c r="BR7" t="s">
+      <c r="BS7" t="s">
         <v>432</v>
       </c>
-      <c r="BS7" t="s">
+      <c r="BT7" t="s">
         <v>433</v>
       </c>
-      <c r="BT7" t="s">
+      <c r="BU7" t="s">
         <v>434</v>
       </c>
-      <c r="BU7" t="s">
+      <c r="BV7" t="s">
         <v>435</v>
       </c>
-      <c r="BV7" t="s">
-        <v>232</v>
-      </c>
       <c r="BW7" t="s">
+        <v>232</v>
+      </c>
+      <c r="BX7" t="s">
         <v>436</v>
       </c>
-      <c r="BX7">
+      <c r="BY7">
         <v>0.44166666666666665</v>
       </c>
-      <c r="BY7" t="s">
+      <c r="BZ7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>232</v>
-      </c>
+    <row r="8" spans="1:79">
       <c r="C8" t="s">
         <v>232</v>
       </c>
@@ -3882,20 +3931,20 @@
         <v>232</v>
       </c>
       <c r="J8" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" t="s">
         <v>438</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>439</v>
       </c>
-      <c r="L8" t="s">
-        <v>232</v>
-      </c>
       <c r="M8" t="s">
+        <v>232</v>
+      </c>
+      <c r="N8" t="s">
         <v>440</v>
       </c>
-      <c r="N8" t="s">
-        <v>232</v>
-      </c>
       <c r="O8" t="s">
         <v>232</v>
       </c>
@@ -3903,17 +3952,17 @@
         <v>232</v>
       </c>
       <c r="Q8" t="s">
+        <v>232</v>
+      </c>
+      <c r="R8" t="s">
         <v>441</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>442</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>443</v>
       </c>
-      <c r="T8" t="s">
-        <v>232</v>
-      </c>
       <c r="U8" t="s">
         <v>232</v>
       </c>
@@ -3936,17 +3985,17 @@
         <v>232</v>
       </c>
       <c r="AB8" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC8" t="s">
         <v>444</v>
       </c>
-      <c r="AC8" t="s">
-        <v>232</v>
-      </c>
       <c r="AD8" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE8" t="s">
         <v>445</v>
       </c>
-      <c r="AE8" t="s">
-        <v>232</v>
-      </c>
       <c r="AF8" t="s">
         <v>232</v>
       </c>
@@ -4002,20 +4051,20 @@
         <v>232</v>
       </c>
       <c r="AX8" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY8" t="s">
         <v>446</v>
       </c>
-      <c r="AY8" t="s">
-        <v>232</v>
-      </c>
       <c r="AZ8" t="s">
         <v>232</v>
       </c>
       <c r="BA8" t="s">
+        <v>232</v>
+      </c>
+      <c r="BB8" t="s">
         <v>183</v>
       </c>
-      <c r="BB8" t="s">
-        <v>232</v>
-      </c>
       <c r="BC8" t="s">
         <v>232</v>
       </c>
@@ -4065,11 +4114,11 @@
         <v>232</v>
       </c>
       <c r="BS8" t="s">
+        <v>232</v>
+      </c>
+      <c r="BT8" t="s">
         <v>447</v>
       </c>
-      <c r="BT8" t="s">
-        <v>232</v>
-      </c>
       <c r="BU8" t="s">
         <v>232</v>
       </c>
@@ -4077,41 +4126,221 @@
         <v>232</v>
       </c>
       <c r="BW8" t="s">
+        <v>232</v>
+      </c>
+      <c r="BX8" t="s">
         <v>448</v>
       </c>
-      <c r="BX8" t="s">
+      <c r="BY8" t="s">
         <v>449</v>
       </c>
-      <c r="BY8" t="s">
+      <c r="BZ8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
+    <row r="9" spans="1:79">
+      <c r="A9" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="N9" t="s">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:79">
+      <c r="A10" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:79">
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BK13" s="4"/>
+      <c r="BL13" s="4"/>
+      <c r="BM13" s="4"/>
+      <c r="BN13" s="4"/>
+      <c r="BO13" s="4"/>
+      <c r="BP13" s="4"/>
+      <c r="BQ13" s="4"/>
+      <c r="BR13" s="4"/>
+      <c r="BS13" s="4"/>
+      <c r="BT13" s="4"/>
+      <c r="BU13" s="4"/>
+      <c r="BV13" s="4"/>
+      <c r="BW13" s="4"/>
+      <c r="BX13" s="4"/>
+      <c r="BY13" s="4"/>
+      <c r="BZ13" s="4"/>
+      <c r="CA13" s="4"/>
+    </row>
+    <row r="14" spans="1:79">
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BK14" s="4"/>
+      <c r="BL14" s="4"/>
+      <c r="BM14" s="4"/>
+      <c r="BN14" s="4"/>
+      <c r="BO14" s="4"/>
+      <c r="BP14" s="4"/>
+      <c r="BQ14" s="4"/>
+      <c r="BR14" s="4"/>
+      <c r="BS14" s="4"/>
+      <c r="BT14" s="4"/>
+      <c r="BU14" s="4"/>
+      <c r="BV14" s="4"/>
+      <c r="BW14" s="4"/>
+      <c r="BX14" s="4"/>
+      <c r="BY14" s="4"/>
+      <c r="BZ14" s="4"/>
+      <c r="CA14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/DERIVED/combineLevels_train_processed.xlsx
+++ b/DERIVED/combineLevels_train_processed.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\system5\Documents\StudyWork\Kaggle\House_Pricing\DERIVED\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20505" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="summary_train_processed" sheetId="1" r:id="rId1"/>
@@ -2247,7 +2252,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2257,27 +2262,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="2" customFormat="1">
+    <row r="1" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2510,7 +2518,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:79">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>134</v>
       </c>
@@ -2743,7 +2751,7 @@
         <v>0.34236111111111112</v>
       </c>
     </row>
-    <row r="3" spans="1:79">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>197</v>
       </c>
@@ -2976,7 +2984,7 @@
         <v>0.25347222222222221</v>
       </c>
     </row>
-    <row r="4" spans="1:79">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>262</v>
       </c>
@@ -3209,7 +3217,7 @@
         <v>0.66805555555555551</v>
       </c>
     </row>
-    <row r="5" spans="1:79">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>331</v>
       </c>
@@ -3442,7 +3450,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:79">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>386</v>
       </c>
@@ -3675,7 +3683,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:79">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>437</v>
       </c>
@@ -3908,7 +3916,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:79">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>232</v>
       </c>
@@ -4138,7 +4146,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:79">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>456</v>
       </c>
@@ -4174,7 +4182,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
-    <row r="10" spans="1:79">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>457</v>
       </c>
@@ -4208,7 +4216,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:79">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -4268,7 +4276,7 @@
       <c r="BZ13" s="4"/>
       <c r="CA13" s="4"/>
     </row>
-    <row r="14" spans="1:79">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>

--- a/DERIVED/combineLevels_train_processed.xlsx
+++ b/DERIVED/combineLevels_train_processed.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="summary_train_processed" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2262,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,10 +2279,15 @@
     <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11" bestFit="1" customWidth="1"/>
     <col min="58" max="59" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4214,6 +4219,16 @@
       </c>
       <c r="T10" s="4" t="s">
         <v>452</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:79" x14ac:dyDescent="0.25">
@@ -4291,16 +4306,6 @@
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
-      <c r="AJ14" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="AK14" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4" t="s">
-        <v>463</v>
-      </c>
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
@@ -4344,7 +4349,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
